--- a/工作流/PrlBA_Fee_费用申请单设计(博爱).xlsx
+++ b/工作流/PrlBA_Fee_费用申请单设计(博爱).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\现代医院内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\stamfordoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26280" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="27450" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -1499,16 +1499,16 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>106</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4117" name="Object 1045" hidden="1">
+            <xdr:cNvPr id="4119" name="Object 1047" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4117"/>
+                  <a14:compatExt spid="_x0000_s4119"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1529,10 +1529,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2200,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2467,7 +2480,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4117" r:id="rId4">
+        <oleObject progId="Visio.Drawing.15" shapeId="4119" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -2478,16 +2491,16 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4117" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4119" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -3945,7 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/工作流/PrlBA_Fee_费用申请单设计(博爱).xlsx
+++ b/工作流/PrlBA_Fee_费用申请单设计(博爱).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27450" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="28620" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="274">
   <si>
     <t>标题信息</t>
   </si>
@@ -870,9 +870,6 @@
     <t>constraint PK_WF_PrlBA_Fee_dtl primary key(EntGid, FlowGid, Gid)</t>
   </si>
   <si>
-    <t>drop table WF_PrlBA_Fee_App;</t>
-  </si>
-  <si>
     <t>create table WF_PrlBA_Fee_App (</t>
   </si>
   <si>
@@ -888,156 +885,192 @@
     <t>constraint PK_WF_PrlBA_Fee_Attach primary key(EntGid, FlowGid, Attach_Gid)</t>
   </si>
   <si>
+    <t>职务：10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏瑞利监事</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏瑞利董事</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>合资公司财务总监</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务：20</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>院长</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务：33</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门总监</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务经理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务总监</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcgTwoGid</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1w 且 &lt;=3w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司(0004)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=1w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务总监
+TA3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产经理
+TA4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>院长
+TB0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理
+TB1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目(1.01-1.06)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1w 且 &lt;=5w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=5w</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产经理
+TB2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>0:发起人
-10:项目(医院)部门总监
-20:项目(医院)财务总监
-30:项目(医院)总经理
+10:部门总监
+20:财务经理
+25:财务总监
+26:资产经理
+28:院长
+30:总经理
+90:合资公司CFO
 40:博爱监事
-50:项目总经理
-60:合资公司CEO
+50:博爱董事
 70:鹏瑞利监事
 80:鹏瑞利董事
-90:合资公司财务总监
+60:合资公司CEO
 100:博爱CEO
 110:鹏瑞利CEO
 120:发起人确认</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>职务：10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏瑞利监事</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏瑞利董事</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>合资公司财务总监</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务：20</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>院长</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务：33</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门总监</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务经理</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务总监</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcgTwoGid</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;1w 且 &lt;=3w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司(0004)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=1w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;1w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务总监
-TA3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产经理
-TA4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>院长
-TB0</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理
-TB1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目(1.01-1.06)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;1w 且 &lt;=5w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;5w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;=5w</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产经理
-TB2</t>
+    <t>AppOrder</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5:发起人
+10:部门总监
+15:财务经理
+20:财务总监
+23:资产经理
+25:院长
+30:总经理
+35:合资公司CFO
+40:博爱监事
+40:博爱董事
+50:鹏瑞利监事
+50:鹏瑞利董事
+60:合资公司CEO
+65:博爱CEO
+70:鹏瑞利CEO
+75:发起人确认
+80:出纳付款
+85:发起人修改支付信息
+</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table WF_PrlBA_Fee_App;</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1082,7 @@
     <numFmt numFmtId="176" formatCode="\ \-\-@"/>
     <numFmt numFmtId="177" formatCode="\-\-@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1239,6 +1272,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1315,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,6 +1506,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,23 +1573,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2213,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2279,35 +2310,35 @@
         <v>207</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>46</v>
@@ -2318,16 +2349,16 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
@@ -2385,7 +2416,7 @@
         <v>212</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>96</v>
@@ -2397,7 +2428,7 @@
         <v>213</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>96</v>
@@ -2409,7 +2440,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>96</v>
@@ -2509,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2794,7 +2825,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>52</v>
@@ -3572,7 +3603,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -3584,7 +3615,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -3637,53 +3668,60 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="146.25" x14ac:dyDescent="0.15">
-      <c r="B95" s="35" t="s">
+    <row r="95" spans="1:7" ht="213.75" x14ac:dyDescent="0.15">
+      <c r="A95" s="53"/>
+      <c r="B95" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="F95" s="48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="180" x14ac:dyDescent="0.15">
+      <c r="B96" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="C96" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D95" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="36" t="s">
+      <c r="D96" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E96" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="G95" s="45"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B96" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F96" s="45"/>
+      <c r="F96" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G96" s="45"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B97" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D97" s="35" t="s">
         <v>57</v>
       </c>
+      <c r="E97" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="45"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B98" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>69</v>
@@ -3694,7 +3732,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B99" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C99" s="35" t="s">
         <v>69</v>
@@ -3702,92 +3740,89 @@
       <c r="D99" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="36" t="s">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="38" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="38" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" s="36" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B102" s="35" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D102" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B103" s="35" t="s">
-        <v>233</v>
+        <v>89</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" s="36" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B104" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="32"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
-      <c r="E108" s="34"/>
+      <c r="E108" s="33" t="s">
+        <v>91</v>
+      </c>
       <c r="F108" s="32"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D109" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" s="36" t="s">
-        <v>98</v>
-      </c>
+      <c r="A109" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="32"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B110" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C110" s="35" t="s">
         <v>52</v>
@@ -3795,12 +3830,13 @@
       <c r="D110" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
+      <c r="E110" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B111" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>52</v>
@@ -3808,13 +3844,12 @@
       <c r="D111" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E111" s="36" t="s">
-        <v>99</v>
-      </c>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B112" s="35" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C112" s="35" t="s">
         <v>52</v>
@@ -3823,128 +3858,142 @@
         <v>53</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B113" s="35" t="s">
-        <v>63</v>
+        <v>169</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B114" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E114" s="36" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B115" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D115" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B116" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D116" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E116" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B117" s="35" t="s">
-        <v>236</v>
+        <v>164</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B118" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="32"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="32"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
-      <c r="E123" s="34"/>
+      <c r="E123" s="33"/>
       <c r="F123" s="32"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E124" s="36"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="32"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E127" s="36"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E129" s="36"/>
-      <c r="F129" s="39"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E131" s="36"/>
-      <c r="F131" s="44"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E128" s="36"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E130" s="36"/>
+      <c r="F130" s="39"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E132" s="36"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="32"/>
+      <c r="F132" s="44"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E133" s="36"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="32"/>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
-      <c r="E136" s="34"/>
+      <c r="E136" s="33"/>
       <c r="F136" s="32"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E137" s="36"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="32"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -3958,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3974,249 +4023,249 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C1" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>264</v>
-      </c>
       <c r="E1" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>256</v>
-      </c>
       <c r="D2" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="G8" s="52" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>254</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>256</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>260</v>
-      </c>
       <c r="D12" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
